--- a/medicine/Enfance/Richard_McGuire_(auteur)/Richard_McGuire_(auteur).xlsx
+++ b/medicine/Enfance/Richard_McGuire_(auteur)/Richard_McGuire_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard McGuire (né en 1957) est un illustrateur, graphiste, auteur de bande dessinée, animateur, auteur de livres jeunesse, musicien et concepteur de jouets américain.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses illustrations ont été publiées dans le New York Times, The New Yorker, Le Monde et d'autres publications.
-Il est un des membres fondateurs[1] et le bassiste du groupe Liquid Liquid.
-Il remporte le 30 janvier 2016 le Fauve d'Or du meilleur album de l'année du Festival d'Angoulême 2016 pour son roman graphique Ici, paru chez Gallimard[2].
+Il est un des membres fondateurs et le bassiste du groupe Liquid Liquid.
+Il remporte le 30 janvier 2016 le Fauve d'Or du meilleur album de l'année du Festival d'Angoulême 2016 pour son roman graphique Ici, paru chez Gallimard.
 </t>
         </is>
       </c>
@@ -546,24 +560,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Histoires courtes
-(en) The Dot Man, 1 page dans Bad News #3 (Fantagraphics, 1988)
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Histoires courtes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) The Dot Man, 1 page dans Bad News #3 (Fantagraphics, 1988)
 (en) Here, 6 pages dans RAW vol. 2 #1 (1989)  (ISBN 9780140122657)
 (en) The Thinkers, RAW vol. 2 #2 (1990)  (ISBN 9780140122657)
 (en) Bon appétit, dans 2wBOX Set I (Suisse: Bülb Comix, 2002)
-(en) ctrl, 6 pages dans McSweeney's Quarterly Concern#13 (2003)  (ISBN 9781932416084)
-Romans graphiques
-(en) Here (Pantheon: 2014)  (ISBN 9780375406508)
-Ici, traduction d'Isabelle Troin, Gallimard, 2015 - Fauve d'Or du meilleur album de l'année du Festival d'Angoulême 2016
-Livres jeunesse
-(en) The Orange Book (New York: Children's Universe, 1992)  (ISBN 9780847814657)
-(en) Night Becomes Day (New York: Viking, 1994)  (ISBN 9780670855476)
-(en) What Goes Around Comes Around (New York: Viking, 1995)  (ISBN 9780670863969)
-(en) What's Wrong With This Book? (New York: Viking, 1997)  (ISBN 9780670868520)
-Livres adultes
-Popeye and Olive (Paris: Cornélius, 2001)  (ISBN 9782909990620)
-P+O (Paris: Cornélius, 2002)  (ISBN 2909990605)</t>
+(en) ctrl, 6 pages dans McSweeney's Quarterly Concern#13 (2003)  (ISBN 9781932416084)</t>
         </is>
       </c>
     </row>
@@ -588,13 +599,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Filmographie</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Micro Loup (Loulou et autres loups, 2003)
-Peur(s) du noir, 2007</t>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans graphiques</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Here (Pantheon: 2014)  (ISBN 9780375406508)
+Ici, traduction d'Isabelle Troin, Gallimard, 2015 - Fauve d'Or du meilleur album de l'année du Festival d'Angoulême 2016</t>
         </is>
       </c>
     </row>
@@ -619,15 +640,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Orange Book (New York: Children's Universe, 1992)  (ISBN 9780847814657)
+(en) Night Becomes Day (New York: Viking, 1994)  (ISBN 9780670855476)
+(en) What Goes Around Comes Around (New York: Viking, 1995)  (ISBN 9780670863969)
+(en) What's Wrong With This Book? (New York: Viking, 1997)  (ISBN 9780670868520)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Richard_McGuire_(auteur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_McGuire_(auteur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Popeye and Olive (Paris: Cornélius, 2001)  (ISBN 9782909990620)
+P+O (Paris: Cornélius, 2002)  (ISBN 2909990605)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Richard_McGuire_(auteur)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_McGuire_(auteur)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Micro Loup (Loulou et autres loups, 2003)
+Peur(s) du noir, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Richard_McGuire_(auteur)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Richard_McGuire_(auteur)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2015 :  Prix Peng ! de la meilleure bande dessinée nord-américaine pour Ici
 2016 :
 Fauve d'Or du meilleur album de l'année du Festival d'Angoulême 2016 pour Ici
-Finaliste du Grand prix de la critique de l'ACBD pour Ici[3]</t>
+Finaliste du Grand prix de la critique de l'ACBD pour Ici</t>
         </is>
       </c>
     </row>
